--- a/biology/Botanique/Suillus_viscidus/Suillus_viscidus.xlsx
+++ b/biology/Botanique/Suillus_viscidus/Suillus_viscidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet gris des mélèzes
 Suillus viscidus, le Bolet gris des mélèzes, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par ses teintes grisâtres et son habitat sous mélèzes.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus viscidus (L.) Roussel, 1796[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus viscidus L., 1753[1].
-Synonymes
-Suillus viscidus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus viscidus (L.) Roussel, 1796.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus viscidus L., 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus viscidus a pour synonymes :
 Boletopsis viscida (L.) Henn., 1900
 Boletus collarius Pers.
 Boletus elbensis Peck, 1872
@@ -530,45 +579,117 @@
 Ixocomus viscidus (L.) Quél., 1888
 Viscipellis viscida (L.) Quél., 1886
 Viscipellis viscida (Linnaeus) Quélet, 1886
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet gris des melezes[2], bolet gris des mélèzes[3], bolet vert de gris[3], bolet visqueux[3].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Suillus_viscidus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suillus_viscidus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet gris des melezes, bolet gris des mélèzes, bolet vert de gris, bolet visqueux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus viscidus, le Bolet gris des mélèzes, sont les suivantes :
-Son chapeau mesure 3 à 10 cm, il est visqueux, beige à gris-brun, puis en vieillissant souvent marbré d'olivâtre[4].
-L'hyménophore présente des tubes blanchâtres puis gris. Les pores sont amples, concolores aux tubes[4].
-Son stipe mesure 4 à 9 cm x 0,5 à 1,5 cm, il est concolore au chapeau, à anneau visqueux blanc puis gris-brun[4].
-La chair est molle, blanchâtre. Sa saveur est douce et son odeur est faible, un peu fruitée[4].
-Caractéristiques microscopiques
-Ses spores mesurent 9,5 à 12 μm x 3,5 à 5 μm, elles sont elliptiques-fusoïdes[4].
+Son chapeau mesure 3 à 10 cm, il est visqueux, beige à gris-brun, puis en vieillissant souvent marbré d'olivâtre.
+L'hyménophore présente des tubes blanchâtres puis gris. Les pores sont amples, concolores aux tubes.
+Son stipe mesure 4 à 9 cm x 0,5 à 1,5 cm, il est concolore au chapeau, à anneau visqueux blanc puis gris-brun.
+La chair est molle, blanchâtre. Sa saveur est douce et son odeur est faible, un peu fruitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_viscidus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 9,5 à 12 μm x 3,5 à 5 μm, elles sont elliptiques-fusoïdes.
 </t>
         </is>
       </c>
